--- a/media/report-dataset.xlsx
+++ b/media/report-dataset.xlsx
@@ -52,10 +52,10 @@
     <t>LTN</t>
   </si>
   <si>
-    <t>2018-09-24 16:10:12.296428</t>
-  </si>
-  <si>
-    <t>2018-09-24 16:10:12.297776</t>
+    <t>2018-09-24 20:43:40.210647</t>
+  </si>
+  <si>
+    <t>2018-09-24 20:43:40.211635</t>
   </si>
 </sst>
 </file>

--- a/media/report-dataset.xlsx
+++ b/media/report-dataset.xlsx
@@ -52,10 +52,10 @@
     <t>LTN</t>
   </si>
   <si>
-    <t>2018-09-24 20:43:40.210647</t>
-  </si>
-  <si>
-    <t>2018-09-24 20:43:40.211635</t>
+    <t>2018-09-24 22:13:48.028195</t>
+  </si>
+  <si>
+    <t>2018-09-24 22:13:48.029029</t>
   </si>
 </sst>
 </file>

--- a/media/report-dataset.xlsx
+++ b/media/report-dataset.xlsx
@@ -52,10 +52,10 @@
     <t>LTN</t>
   </si>
   <si>
-    <t>2018-09-24 22:13:48.028195</t>
-  </si>
-  <si>
-    <t>2018-09-24 22:13:48.029029</t>
+    <t>2018-09-25 01:11:55.470179</t>
+  </si>
+  <si>
+    <t>2018-09-25 01:11:55.472717</t>
   </si>
 </sst>
 </file>
